--- a/test/01.test/sequencing_tracker.xlsx
+++ b/test/01.test/sequencing_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/01.test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4411D-2F83-8949-917C-074999CBF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97854E12-C0AC-BF41-ACEA-A3D6E4060979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test/01.test/sequencing_tracker.xlsx
+++ b/test/01.test/sequencing_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flashton/Dropbox/scripts/seqbox/test/01.test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97854E12-C0AC-BF41-ACEA-A3D6E4060979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABFACA4-3BC7-7D4F-AB59-CCE41ABAC5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,9 +151,6 @@
     <t>whole_sample</t>
   </si>
   <si>
-    <t>covid sequencing</t>
-  </si>
-  <si>
     <t>CMT15I</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>tiling_pcr_identifier</t>
+  </si>
+  <si>
+    <t>ISARIC</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,10 +1125,10 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
         <v>58</v>
-      </c>
-      <c r="R1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1139,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1166,10 +1166,10 @@
         <v>42</v>
       </c>
       <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
         <v>56</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
@@ -1192,13 +1192,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1219,10 +1219,10 @@
         <v>42</v>
       </c>
       <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
         <v>56</v>
-      </c>
-      <c r="N3" t="s">
-        <v>57</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
@@ -1245,13 +1245,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1272,10 +1272,10 @@
         <v>42</v>
       </c>
       <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
         <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -1298,13 +1298,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
@@ -1325,10 +1325,10 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" t="s">
         <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -1351,13 +1351,13 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1378,10 +1378,10 @@
         <v>42</v>
       </c>
       <c r="M6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" t="s">
         <v>56</v>
-      </c>
-      <c r="N6" t="s">
-        <v>57</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -1404,13 +1404,13 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -1431,10 +1431,10 @@
         <v>42</v>
       </c>
       <c r="M7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
         <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
       </c>
       <c r="O7" t="s">
         <v>31</v>
@@ -1457,13 +1457,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
@@ -1484,10 +1484,10 @@
         <v>42</v>
       </c>
       <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
         <v>56</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
@@ -1510,13 +1510,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -1537,10 +1537,10 @@
         <v>42</v>
       </c>
       <c r="M9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" t="s">
         <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>57</v>
       </c>
       <c r="O9" t="s">
         <v>35</v>
@@ -1563,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -1590,10 +1590,10 @@
         <v>42</v>
       </c>
       <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
         <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>57</v>
       </c>
       <c r="O10" t="s">
         <v>37</v>
@@ -1616,13 +1616,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -1643,10 +1643,10 @@
         <v>42</v>
       </c>
       <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
         <v>56</v>
-      </c>
-      <c r="N11" t="s">
-        <v>57</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
@@ -1669,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -1696,10 +1696,10 @@
         <v>42</v>
       </c>
       <c r="M12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s">
         <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>57</v>
       </c>
       <c r="O12" t="s">
         <v>41</v>
